--- a/data/pca/factorExposure/factorExposure_2016-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01059690647192494</v>
+        <v>-0.01309953248741112</v>
       </c>
       <c r="C2">
-        <v>-0.04811941429741081</v>
+        <v>0.04121544640655467</v>
       </c>
       <c r="D2">
-        <v>0.03398548603732988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06273544569120994</v>
+      </c>
+      <c r="E2">
+        <v>0.06841547696324543</v>
+      </c>
+      <c r="F2">
+        <v>-0.06263788998786114</v>
+      </c>
+      <c r="G2">
+        <v>-0.04144020929324031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04174292424683464</v>
+        <v>-0.02884823729360775</v>
       </c>
       <c r="C3">
-        <v>-0.117990507226524</v>
+        <v>0.07944229811343453</v>
       </c>
       <c r="D3">
-        <v>0.1018220508765541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08943649118381188</v>
+      </c>
+      <c r="E3">
+        <v>0.06596656694073709</v>
+      </c>
+      <c r="F3">
+        <v>0.01428249230752124</v>
+      </c>
+      <c r="G3">
+        <v>0.03627777253458158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06063192137301625</v>
+        <v>-0.05808279000192746</v>
       </c>
       <c r="C4">
-        <v>-0.05902886508452786</v>
+        <v>0.0646637569280747</v>
       </c>
       <c r="D4">
-        <v>0.03494010567286928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06146337411492562</v>
+      </c>
+      <c r="E4">
+        <v>0.06987819096817605</v>
+      </c>
+      <c r="F4">
+        <v>-0.07704153626331636</v>
+      </c>
+      <c r="G4">
+        <v>0.03587589052212513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03877989343033274</v>
+        <v>-0.03554071309194459</v>
       </c>
       <c r="C6">
-        <v>-0.04006633143570113</v>
+        <v>0.03216253425422342</v>
       </c>
       <c r="D6">
-        <v>0.03128750805524846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06434336785079378</v>
+      </c>
+      <c r="E6">
+        <v>0.07296245046938354</v>
+      </c>
+      <c r="F6">
+        <v>-0.055273721384159</v>
+      </c>
+      <c r="G6">
+        <v>0.02147475380772809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02080445517879829</v>
+        <v>-0.01834743233098235</v>
       </c>
       <c r="C7">
-        <v>-0.04382738410029081</v>
+        <v>0.0383603357018015</v>
       </c>
       <c r="D7">
-        <v>-0.00512499600966883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03890505429879941</v>
+      </c>
+      <c r="E7">
+        <v>0.04813707605583744</v>
+      </c>
+      <c r="F7">
+        <v>-0.09839581215677412</v>
+      </c>
+      <c r="G7">
+        <v>0.007545027523436896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003923837780618563</v>
+        <v>-0.003555258701602869</v>
       </c>
       <c r="C8">
-        <v>-0.03059982748689246</v>
+        <v>0.0299240671110075</v>
       </c>
       <c r="D8">
-        <v>0.02409444101077001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03265096885278981</v>
+      </c>
+      <c r="E8">
+        <v>0.0494957991106804</v>
+      </c>
+      <c r="F8">
+        <v>-0.03387349933880895</v>
+      </c>
+      <c r="G8">
+        <v>0.007556713184532783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03310915997922868</v>
+        <v>-0.03704959416974592</v>
       </c>
       <c r="C9">
-        <v>-0.04508131289216676</v>
+        <v>0.05160795299755196</v>
       </c>
       <c r="D9">
-        <v>0.01655187650514249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04391910082840375</v>
+      </c>
+      <c r="E9">
+        <v>0.05808412527303619</v>
+      </c>
+      <c r="F9">
+        <v>-0.08199521013359228</v>
+      </c>
+      <c r="G9">
+        <v>0.02164184709495082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08009689970152956</v>
+        <v>-0.09985594676305842</v>
       </c>
       <c r="C10">
-        <v>0.1921598551797984</v>
+        <v>-0.196030483773195</v>
       </c>
       <c r="D10">
-        <v>-0.005139392969909787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004516396949647973</v>
+      </c>
+      <c r="E10">
+        <v>0.04435458976625808</v>
+      </c>
+      <c r="F10">
+        <v>-0.03837963778055541</v>
+      </c>
+      <c r="G10">
+        <v>0.008824387439696905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04029561496022851</v>
+        <v>-0.03643041884542716</v>
       </c>
       <c r="C11">
-        <v>-0.05529665313445693</v>
+        <v>0.05097890947869498</v>
       </c>
       <c r="D11">
-        <v>0.01465897741445278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03487421537905668</v>
+      </c>
+      <c r="E11">
+        <v>0.01672684283969143</v>
+      </c>
+      <c r="F11">
+        <v>-0.0650499827114018</v>
+      </c>
+      <c r="G11">
+        <v>0.01421319462908145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0399891457613446</v>
+        <v>-0.03743144618331912</v>
       </c>
       <c r="C12">
-        <v>-0.04946715403334617</v>
+        <v>0.04748891164786933</v>
       </c>
       <c r="D12">
-        <v>0.004078666093097856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02703071998548835</v>
+      </c>
+      <c r="E12">
+        <v>0.02441944778292325</v>
+      </c>
+      <c r="F12">
+        <v>-0.06406647549030846</v>
+      </c>
+      <c r="G12">
+        <v>0.01132470872706378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01306898847411861</v>
+        <v>-0.0120623277505509</v>
       </c>
       <c r="C13">
-        <v>-0.05377941715547343</v>
+        <v>0.04602882088625695</v>
       </c>
       <c r="D13">
-        <v>0.01761061293320529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05796460554905102</v>
+      </c>
+      <c r="E13">
+        <v>0.08276863978271697</v>
+      </c>
+      <c r="F13">
+        <v>-0.09326581922885709</v>
+      </c>
+      <c r="G13">
+        <v>0.01794418108485214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006105041813942809</v>
+        <v>-0.004529916198672271</v>
       </c>
       <c r="C14">
-        <v>-0.03753450438496799</v>
+        <v>0.03358938656247931</v>
       </c>
       <c r="D14">
-        <v>-0.01361541217109173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02516926996762003</v>
+      </c>
+      <c r="E14">
+        <v>0.03690536149207898</v>
+      </c>
+      <c r="F14">
+        <v>-0.09110352153914665</v>
+      </c>
+      <c r="G14">
+        <v>-0.006544144897568419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003560668817901961</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005246655240597789</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006902235368364545</v>
+      </c>
+      <c r="E15">
+        <v>0.002476717676217985</v>
+      </c>
+      <c r="F15">
+        <v>-0.005872275813516438</v>
+      </c>
+      <c r="G15">
+        <v>-0.0002383984513498834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0365651587240973</v>
+        <v>-0.03419058629246727</v>
       </c>
       <c r="C16">
-        <v>-0.04825552528477237</v>
+        <v>0.04577328115170203</v>
       </c>
       <c r="D16">
-        <v>0.009862280938901622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02798307778229739</v>
+      </c>
+      <c r="E16">
+        <v>0.03115985183086355</v>
+      </c>
+      <c r="F16">
+        <v>-0.06482716019361393</v>
+      </c>
+      <c r="G16">
+        <v>-0.0001507995997774624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02031081571504428</v>
+        <v>-0.0166983109078632</v>
       </c>
       <c r="C19">
-        <v>-0.06349793706011406</v>
+        <v>0.05058406571147448</v>
       </c>
       <c r="D19">
-        <v>0.08112403253452413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09196347881797881</v>
+      </c>
+      <c r="E19">
+        <v>0.09653763938844437</v>
+      </c>
+      <c r="F19">
+        <v>-0.06773267634039738</v>
+      </c>
+      <c r="G19">
+        <v>-0.02717067290164834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01582072099795435</v>
+        <v>-0.01346016148610233</v>
       </c>
       <c r="C20">
-        <v>-0.04817628956101815</v>
+        <v>0.04139651212402499</v>
       </c>
       <c r="D20">
-        <v>0.01461250286456471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03993954916995288</v>
+      </c>
+      <c r="E20">
+        <v>0.0681787009697796</v>
+      </c>
+      <c r="F20">
+        <v>-0.07520777379628853</v>
+      </c>
+      <c r="G20">
+        <v>0.004901570151008487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008733958961818089</v>
+        <v>-0.008994141821009343</v>
       </c>
       <c r="C21">
-        <v>-0.04950286195363687</v>
+        <v>0.04513259033895767</v>
       </c>
       <c r="D21">
-        <v>0.03844493930917034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06695854917365446</v>
+      </c>
+      <c r="E21">
+        <v>0.1007718645935191</v>
+      </c>
+      <c r="F21">
+        <v>-0.1152961468262488</v>
+      </c>
+      <c r="G21">
+        <v>0.00470541146286691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006641806524639698</v>
+        <v>-0.002430972143917864</v>
       </c>
       <c r="C22">
-        <v>-0.0004311943651460434</v>
+        <v>0.02480374158148937</v>
       </c>
       <c r="D22">
-        <v>0.001463983229547638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03945661693233331</v>
+      </c>
+      <c r="E22">
+        <v>0.03006254630422504</v>
+      </c>
+      <c r="F22">
+        <v>-0.01294600205285027</v>
+      </c>
+      <c r="G22">
+        <v>0.03932960837296213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006641806524639698</v>
+        <v>-0.002501778505816159</v>
       </c>
       <c r="C23">
-        <v>-0.0004311943651460434</v>
+        <v>0.02495064695731911</v>
       </c>
       <c r="D23">
-        <v>0.001463983229547638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03912627225629477</v>
+      </c>
+      <c r="E23">
+        <v>0.03034425876624409</v>
+      </c>
+      <c r="F23">
+        <v>-0.01274593268325238</v>
+      </c>
+      <c r="G23">
+        <v>0.03954160330202994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0328130665815967</v>
+        <v>-0.03382918591271047</v>
       </c>
       <c r="C24">
-        <v>-0.0512233750686376</v>
+        <v>0.05349082445766633</v>
       </c>
       <c r="D24">
-        <v>0.008322587110399904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02788929176998496</v>
+      </c>
+      <c r="E24">
+        <v>0.0288573983350169</v>
+      </c>
+      <c r="F24">
+        <v>-0.07392825941504397</v>
+      </c>
+      <c r="G24">
+        <v>0.008180943766369001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04662754771935788</v>
+        <v>-0.04391138526961148</v>
       </c>
       <c r="C25">
-        <v>-0.06225219388447694</v>
+        <v>0.05750636775256281</v>
       </c>
       <c r="D25">
-        <v>2.742234576811469e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02618364612820199</v>
+      </c>
+      <c r="E25">
+        <v>0.02317448931014881</v>
+      </c>
+      <c r="F25">
+        <v>-0.07585989274747638</v>
+      </c>
+      <c r="G25">
+        <v>0.02467558934988809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01449660103746449</v>
+        <v>-0.01419954921256657</v>
       </c>
       <c r="C26">
-        <v>-0.01728806802705682</v>
+        <v>0.01823031744745962</v>
       </c>
       <c r="D26">
-        <v>0.0002189652643064233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02480763280113373</v>
+      </c>
+      <c r="E26">
+        <v>0.04036197063934746</v>
+      </c>
+      <c r="F26">
+        <v>-0.06488390971137362</v>
+      </c>
+      <c r="G26">
+        <v>-0.01440426788219231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09719030977137558</v>
+        <v>-0.1350333785083054</v>
       </c>
       <c r="C28">
-        <v>0.2363831751673068</v>
+        <v>-0.2467701171193353</v>
       </c>
       <c r="D28">
-        <v>-0.004755638060223101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01821091725353547</v>
+      </c>
+      <c r="E28">
+        <v>0.05763204952387369</v>
+      </c>
+      <c r="F28">
+        <v>-0.05565355888880517</v>
+      </c>
+      <c r="G28">
+        <v>0.01914335295569741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006236474094414011</v>
+        <v>-0.005864468040082811</v>
       </c>
       <c r="C29">
-        <v>-0.03014120490817277</v>
+        <v>0.02928549766217191</v>
       </c>
       <c r="D29">
-        <v>-0.01707408241007684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01912444114366659</v>
+      </c>
+      <c r="E29">
+        <v>0.0377677673616812</v>
+      </c>
+      <c r="F29">
+        <v>-0.08560192521749611</v>
+      </c>
+      <c r="G29">
+        <v>0.00710903739270466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04583444332113372</v>
+        <v>-0.04197559412550168</v>
       </c>
       <c r="C30">
-        <v>-0.0651493308082107</v>
+        <v>0.06526049745442748</v>
       </c>
       <c r="D30">
-        <v>0.07675388206762167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1094030945237257</v>
+      </c>
+      <c r="E30">
+        <v>0.06079754107262855</v>
+      </c>
+      <c r="F30">
+        <v>-0.08294259634497445</v>
+      </c>
+      <c r="G30">
+        <v>-0.01467295337243675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05317771985104035</v>
+        <v>-0.05550919521789822</v>
       </c>
       <c r="C31">
-        <v>-0.03896430220374664</v>
+        <v>0.05757788652861397</v>
       </c>
       <c r="D31">
-        <v>-0.02741728662227363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01121096935166979</v>
+      </c>
+      <c r="E31">
+        <v>0.06245593881553106</v>
+      </c>
+      <c r="F31">
+        <v>-0.06914567804849386</v>
+      </c>
+      <c r="G31">
+        <v>0.04575262463942845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002475180542291995</v>
+        <v>-0.004341476798977477</v>
       </c>
       <c r="C32">
-        <v>-0.03636255530841125</v>
+        <v>0.03464217886430049</v>
       </c>
       <c r="D32">
-        <v>0.0398119281087401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05324811765014092</v>
+      </c>
+      <c r="E32">
+        <v>0.04205903296702159</v>
+      </c>
+      <c r="F32">
+        <v>-0.06468845967386025</v>
+      </c>
+      <c r="G32">
+        <v>-0.01110615001928517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02635944210058204</v>
+        <v>-0.02454384799225765</v>
       </c>
       <c r="C33">
-        <v>-0.05972983561959438</v>
+        <v>0.05493544459522091</v>
       </c>
       <c r="D33">
-        <v>0.04671243774275081</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08077186282289721</v>
+      </c>
+      <c r="E33">
+        <v>0.07255679147430369</v>
+      </c>
+      <c r="F33">
+        <v>-0.1146235364105006</v>
+      </c>
+      <c r="G33">
+        <v>0.01843971151448418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04506327909697876</v>
+        <v>-0.04133894582526083</v>
       </c>
       <c r="C34">
-        <v>-0.06596454084268125</v>
+        <v>0.06428389371174037</v>
       </c>
       <c r="D34">
-        <v>0.01152238669231246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03511040024746939</v>
+      </c>
+      <c r="E34">
+        <v>0.003421093652983387</v>
+      </c>
+      <c r="F34">
+        <v>-0.07617736812900103</v>
+      </c>
+      <c r="G34">
+        <v>0.009596625845407297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0134430804624615</v>
+        <v>-0.01312262929143851</v>
       </c>
       <c r="C36">
-        <v>-0.01426659414489294</v>
+        <v>0.01310229744326676</v>
       </c>
       <c r="D36">
-        <v>-0.003027354446502497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02659585890505213</v>
+      </c>
+      <c r="E36">
+        <v>0.0476907805498576</v>
+      </c>
+      <c r="F36">
+        <v>-0.07179361865074198</v>
+      </c>
+      <c r="G36">
+        <v>0.0083937519630078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03070399128109138</v>
+        <v>-0.02460787698886627</v>
       </c>
       <c r="C38">
-        <v>-0.02907837099434575</v>
+        <v>0.02378389684373463</v>
       </c>
       <c r="D38">
-        <v>-0.005086767742963033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02742427272213219</v>
+      </c>
+      <c r="E38">
+        <v>0.04512761934527981</v>
+      </c>
+      <c r="F38">
+        <v>-0.05804909453260568</v>
+      </c>
+      <c r="G38">
+        <v>0.001340890715344194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04415836312292783</v>
+        <v>-0.03982357633100028</v>
       </c>
       <c r="C39">
-        <v>-0.07118873620255624</v>
+        <v>0.06818249468804655</v>
       </c>
       <c r="D39">
-        <v>0.02053120344894299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05544828162501252</v>
+      </c>
+      <c r="E39">
+        <v>0.03304949314326912</v>
+      </c>
+      <c r="F39">
+        <v>-0.08464549029467301</v>
+      </c>
+      <c r="G39">
+        <v>-0.01479624062874326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01292951136988671</v>
+        <v>-0.01386599582326656</v>
       </c>
       <c r="C40">
-        <v>-0.05295625901432222</v>
+        <v>0.0398622642096259</v>
       </c>
       <c r="D40">
-        <v>0.02234323059617862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03803368939539407</v>
+      </c>
+      <c r="E40">
+        <v>0.07350507634204891</v>
+      </c>
+      <c r="F40">
+        <v>-0.06921832388793774</v>
+      </c>
+      <c r="G40">
+        <v>0.03804006218005763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01884517399836041</v>
+        <v>-0.01817399631933309</v>
       </c>
       <c r="C41">
-        <v>-0.005125252798581601</v>
+        <v>0.007920074507141038</v>
       </c>
       <c r="D41">
-        <v>-0.001784760146999106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01462646550235983</v>
+      </c>
+      <c r="E41">
+        <v>0.05006718190790193</v>
+      </c>
+      <c r="F41">
+        <v>-0.06023620175770704</v>
+      </c>
+      <c r="G41">
+        <v>0.0009830608271466014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03570664379626336</v>
+        <v>-0.02862181453500364</v>
       </c>
       <c r="C43">
-        <v>-0.0238611924800652</v>
+        <v>0.02240415534649426</v>
       </c>
       <c r="D43">
-        <v>0.02253734937511651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0407179193465852</v>
+      </c>
+      <c r="E43">
+        <v>0.06036164800354983</v>
+      </c>
+      <c r="F43">
+        <v>-0.0702183257023032</v>
+      </c>
+      <c r="G43">
+        <v>0.02058753909089019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01261983012905199</v>
+        <v>-0.01449826039104247</v>
       </c>
       <c r="C44">
-        <v>-0.06513716375915522</v>
+        <v>0.05137618176954478</v>
       </c>
       <c r="D44">
-        <v>0.01478430835512344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04236303269766541</v>
+      </c>
+      <c r="E44">
+        <v>0.07962939526809344</v>
+      </c>
+      <c r="F44">
+        <v>-0.07168869701882573</v>
+      </c>
+      <c r="G44">
+        <v>-0.00825121228616277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004625270734453494</v>
+        <v>-0.007821981118442249</v>
       </c>
       <c r="C46">
-        <v>-0.02238116097679521</v>
+        <v>0.02697527356434944</v>
       </c>
       <c r="D46">
-        <v>-0.02023532599317543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01145184684982485</v>
+      </c>
+      <c r="E46">
+        <v>0.04774221484319969</v>
+      </c>
+      <c r="F46">
+        <v>-0.09769955823151048</v>
+      </c>
+      <c r="G46">
+        <v>-0.0009759002683959394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08151975232079345</v>
+        <v>-0.0876512498043437</v>
       </c>
       <c r="C47">
-        <v>-0.06928097841119377</v>
+        <v>0.08019270042628661</v>
       </c>
       <c r="D47">
-        <v>-0.02500294390962801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01574614505189667</v>
+      </c>
+      <c r="E47">
+        <v>0.06610241582853277</v>
+      </c>
+      <c r="F47">
+        <v>-0.07411031050887958</v>
+      </c>
+      <c r="G47">
+        <v>0.04964861532721168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01791738255622627</v>
+        <v>-0.01555613757714868</v>
       </c>
       <c r="C48">
-        <v>-0.0134758888175204</v>
+        <v>0.01699721097575903</v>
       </c>
       <c r="D48">
-        <v>-0.01423201843984787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01696924073234157</v>
+      </c>
+      <c r="E48">
+        <v>0.05889602212917982</v>
+      </c>
+      <c r="F48">
+        <v>-0.08778774305070212</v>
+      </c>
+      <c r="G48">
+        <v>0.006547760451834143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07888842246146037</v>
+        <v>-0.07114116825026888</v>
       </c>
       <c r="C50">
-        <v>-0.07515817861515769</v>
+        <v>0.07326325354179981</v>
       </c>
       <c r="D50">
-        <v>-0.02835157357670231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003175851042312047</v>
+      </c>
+      <c r="E50">
+        <v>0.06873433550414096</v>
+      </c>
+      <c r="F50">
+        <v>-0.0556428689246261</v>
+      </c>
+      <c r="G50">
+        <v>0.0698595448378496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01442425462023808</v>
+        <v>-0.01095955811415065</v>
       </c>
       <c r="C51">
-        <v>-0.05057360248967115</v>
+        <v>0.0342677015336709</v>
       </c>
       <c r="D51">
-        <v>0.02500578006602411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05009939847468661</v>
+      </c>
+      <c r="E51">
+        <v>0.03680820102075416</v>
+      </c>
+      <c r="F51">
+        <v>-0.07424669588012316</v>
+      </c>
+      <c r="G51">
+        <v>-0.02145630841960001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07973703825987725</v>
+        <v>-0.09365350056115831</v>
       </c>
       <c r="C53">
-        <v>-0.07725281129274525</v>
+        <v>0.086955030060387</v>
       </c>
       <c r="D53">
-        <v>-0.03773725313064778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03900258006302129</v>
+      </c>
+      <c r="E53">
+        <v>0.06387151350847792</v>
+      </c>
+      <c r="F53">
+        <v>-0.08520769153486643</v>
+      </c>
+      <c r="G53">
+        <v>0.06281268194076987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02897548280885934</v>
+        <v>-0.02763048482978421</v>
       </c>
       <c r="C54">
-        <v>-0.02847033539081518</v>
+        <v>0.02807373949304474</v>
       </c>
       <c r="D54">
-        <v>0.001289428193886106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03001442480664967</v>
+      </c>
+      <c r="E54">
+        <v>0.04612264848969305</v>
+      </c>
+      <c r="F54">
+        <v>-0.09562388717225735</v>
+      </c>
+      <c r="G54">
+        <v>0.00747357508862373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07376788464512665</v>
+        <v>-0.0850681993102904</v>
       </c>
       <c r="C55">
-        <v>-0.05929340940692852</v>
+        <v>0.07005596350127567</v>
       </c>
       <c r="D55">
-        <v>-0.04674259978483686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04728825097478619</v>
+      </c>
+      <c r="E55">
+        <v>0.04937793316526877</v>
+      </c>
+      <c r="F55">
+        <v>-0.05952343161942242</v>
+      </c>
+      <c r="G55">
+        <v>0.05122790951383588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1428503404914166</v>
+        <v>-0.1470990688227068</v>
       </c>
       <c r="C56">
-        <v>-0.09558537903142039</v>
+        <v>0.1047430231330026</v>
       </c>
       <c r="D56">
-        <v>-0.04276413916720852</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04749373817043413</v>
+      </c>
+      <c r="E56">
+        <v>0.05249732391478319</v>
+      </c>
+      <c r="F56">
+        <v>-0.04499943017667845</v>
+      </c>
+      <c r="G56">
+        <v>0.05740610755920144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001335943687250471</v>
+        <v>-0.0006706505697401195</v>
       </c>
       <c r="C57">
-        <v>0.002396523227052492</v>
+        <v>-0.001170621201257124</v>
       </c>
       <c r="D57">
-        <v>0.01357961228669433</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01076123942296464</v>
+      </c>
+      <c r="E57">
+        <v>0.008660388806677941</v>
+      </c>
+      <c r="F57">
+        <v>-0.006797524900294053</v>
+      </c>
+      <c r="G57">
+        <v>-2.942134237589073e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0497552417421714</v>
+        <v>-0.0301570075721551</v>
       </c>
       <c r="C58">
-        <v>-0.0326453937766058</v>
+        <v>0.03184708785324064</v>
       </c>
       <c r="D58">
-        <v>0.7077892713787921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4197646367683918</v>
+      </c>
+      <c r="E58">
+        <v>0.6463703720600992</v>
+      </c>
+      <c r="F58">
+        <v>0.5553996779950673</v>
+      </c>
+      <c r="G58">
+        <v>-0.06641087132431772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1361972510412611</v>
+        <v>-0.1444592215905461</v>
       </c>
       <c r="C59">
-        <v>0.1906066581837401</v>
+        <v>-0.1861063953268844</v>
       </c>
       <c r="D59">
-        <v>0.02169710117804634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02963246885810865</v>
+      </c>
+      <c r="E59">
+        <v>0.02607468766779558</v>
+      </c>
+      <c r="F59">
+        <v>-0.01848299758181911</v>
+      </c>
+      <c r="G59">
+        <v>-0.02953457370790636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3072949362151906</v>
+        <v>-0.2823725448104922</v>
       </c>
       <c r="C60">
-        <v>-0.1015798587641119</v>
+        <v>0.09985630287542234</v>
       </c>
       <c r="D60">
-        <v>0.1304935971211413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.220085001664553</v>
+      </c>
+      <c r="E60">
+        <v>-0.2731944738609776</v>
+      </c>
+      <c r="F60">
+        <v>0.09006543638771902</v>
+      </c>
+      <c r="G60">
+        <v>0.05069452212094779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04162474612973926</v>
+        <v>-0.04094274150068154</v>
       </c>
       <c r="C61">
-        <v>-0.06611237707038733</v>
+        <v>0.06267578983285932</v>
       </c>
       <c r="D61">
-        <v>0.01521101146456906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04661869115113643</v>
+      </c>
+      <c r="E61">
+        <v>0.03723711892441269</v>
+      </c>
+      <c r="F61">
+        <v>-0.07552358908789834</v>
+      </c>
+      <c r="G61">
+        <v>0.01098982894538283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01504200227708455</v>
+        <v>-0.01503913377065339</v>
       </c>
       <c r="C63">
-        <v>-0.03285502804103231</v>
+        <v>0.0316328752420836</v>
       </c>
       <c r="D63">
-        <v>-0.009802754064062882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02128974062646394</v>
+      </c>
+      <c r="E63">
+        <v>0.05130356490987743</v>
+      </c>
+      <c r="F63">
+        <v>-0.06779410751144799</v>
+      </c>
+      <c r="G63">
+        <v>0.02749250722575634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04823826454044797</v>
+        <v>-0.05600098934460288</v>
       </c>
       <c r="C64">
-        <v>-0.04372891643292567</v>
+        <v>0.05549585947690477</v>
       </c>
       <c r="D64">
-        <v>0.002450975171066632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008593482814517982</v>
+      </c>
+      <c r="E64">
+        <v>0.03366613764048596</v>
+      </c>
+      <c r="F64">
+        <v>-0.08463768955256565</v>
+      </c>
+      <c r="G64">
+        <v>0.009639281751504516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08644396703163595</v>
+        <v>-0.07024520296388627</v>
       </c>
       <c r="C65">
-        <v>-0.03609459102779266</v>
+        <v>0.03315440610786195</v>
       </c>
       <c r="D65">
-        <v>0.05460936902634073</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08732744630528033</v>
+      </c>
+      <c r="E65">
+        <v>0.0379938567773818</v>
+      </c>
+      <c r="F65">
+        <v>-0.005389145394953348</v>
+      </c>
+      <c r="G65">
+        <v>0.002596985137749615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0613925630677338</v>
+        <v>-0.05239477074919106</v>
       </c>
       <c r="C66">
-        <v>-0.1008034423292569</v>
+        <v>0.08958730946097192</v>
       </c>
       <c r="D66">
-        <v>0.04343308478540313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08252998271625663</v>
+      </c>
+      <c r="E66">
+        <v>0.03914896831873846</v>
+      </c>
+      <c r="F66">
+        <v>-0.08641736505810287</v>
+      </c>
+      <c r="G66">
+        <v>0.002208130482439104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0528390011162103</v>
+        <v>-0.04654690807976672</v>
       </c>
       <c r="C67">
-        <v>-0.03418449890167759</v>
+        <v>0.03022673353282419</v>
       </c>
       <c r="D67">
-        <v>-0.007612093933662165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01398347347653662</v>
+      </c>
+      <c r="E67">
+        <v>0.02524737753176426</v>
+      </c>
+      <c r="F67">
+        <v>-0.0481335676549968</v>
+      </c>
+      <c r="G67">
+        <v>0.007900018531052324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1321625090486783</v>
+        <v>-0.1505743283936271</v>
       </c>
       <c r="C68">
-        <v>0.2815858944359237</v>
+        <v>-0.2490805341937817</v>
       </c>
       <c r="D68">
-        <v>-0.01176763838213547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01745106869041695</v>
+      </c>
+      <c r="E68">
+        <v>0.04269787167178595</v>
+      </c>
+      <c r="F68">
+        <v>-0.01517542364781866</v>
+      </c>
+      <c r="G68">
+        <v>0.01008759295949971</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08853849011475996</v>
+        <v>-0.08740491551468016</v>
       </c>
       <c r="C69">
-        <v>-0.06809641804804142</v>
+        <v>0.08701453215804668</v>
       </c>
       <c r="D69">
-        <v>-0.0365798392998497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00762347721386964</v>
+      </c>
+      <c r="E69">
+        <v>0.04957667987048569</v>
+      </c>
+      <c r="F69">
+        <v>-0.09069645976576396</v>
+      </c>
+      <c r="G69">
+        <v>0.02820381225012212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1218633016231641</v>
+        <v>-0.142647669244215</v>
       </c>
       <c r="C71">
-        <v>0.247584755765876</v>
+        <v>-0.2356441715861799</v>
       </c>
       <c r="D71">
-        <v>0.0237265219220385</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01279743599749177</v>
+      </c>
+      <c r="E71">
+        <v>0.06294488274362109</v>
+      </c>
+      <c r="F71">
+        <v>-0.05522805562402368</v>
+      </c>
+      <c r="G71">
+        <v>0.03641334862365357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08760769405853298</v>
+        <v>-0.09786067244211263</v>
       </c>
       <c r="C72">
-        <v>-0.05355930182363563</v>
+        <v>0.05720905763622491</v>
       </c>
       <c r="D72">
-        <v>0.00493981032901925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02924821526353769</v>
+      </c>
+      <c r="E72">
+        <v>0.01503984476772899</v>
+      </c>
+      <c r="F72">
+        <v>-0.07021258682612568</v>
+      </c>
+      <c r="G72">
+        <v>0.03358434900911058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.408158275715801</v>
+        <v>-0.3467779878296658</v>
       </c>
       <c r="C73">
-        <v>-0.07121334630592786</v>
+        <v>0.07480401952142347</v>
       </c>
       <c r="D73">
-        <v>0.3406733839693382</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4585331892543535</v>
+      </c>
+      <c r="E73">
+        <v>-0.4837248197372975</v>
+      </c>
+      <c r="F73">
+        <v>0.2413105549309034</v>
+      </c>
+      <c r="G73">
+        <v>0.1074288085182467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1060833776928687</v>
+        <v>-0.1107547843423597</v>
       </c>
       <c r="C74">
-        <v>-0.09801081671430344</v>
+        <v>0.09658399542519781</v>
       </c>
       <c r="D74">
-        <v>-0.02106110115323864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03018419307667992</v>
+      </c>
+      <c r="E74">
+        <v>0.0659410681593719</v>
+      </c>
+      <c r="F74">
+        <v>-0.04841040706385328</v>
+      </c>
+      <c r="G74">
+        <v>0.07240269442658707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2519945548735112</v>
+        <v>-0.2576485044563742</v>
       </c>
       <c r="C75">
-        <v>-0.1071949399597465</v>
+        <v>0.1298030835509164</v>
       </c>
       <c r="D75">
-        <v>-0.08578282715034388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1260272399103814</v>
+      </c>
+      <c r="E75">
+        <v>0.07223782659346696</v>
+      </c>
+      <c r="F75">
+        <v>-0.01800096037910032</v>
+      </c>
+      <c r="G75">
+        <v>0.0737737333893428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.111162297813302</v>
+        <v>-0.1270425749376787</v>
       </c>
       <c r="C76">
-        <v>-0.09035270085113471</v>
+        <v>0.09902833349711082</v>
       </c>
       <c r="D76">
-        <v>-0.04432788471880531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05684047789129944</v>
+      </c>
+      <c r="E76">
+        <v>0.07834527348640019</v>
+      </c>
+      <c r="F76">
+        <v>-0.06880094768267525</v>
+      </c>
+      <c r="G76">
+        <v>0.05615431632999284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07654000210739462</v>
+        <v>-0.06296256984481645</v>
       </c>
       <c r="C77">
-        <v>-0.06489458548950086</v>
+        <v>0.07473466511959559</v>
       </c>
       <c r="D77">
-        <v>0.05662130587366731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06587080472265006</v>
+      </c>
+      <c r="E77">
+        <v>0.09350715675864958</v>
+      </c>
+      <c r="F77">
+        <v>-0.1064382710015646</v>
+      </c>
+      <c r="G77">
+        <v>-0.1359646824162406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04689663552528866</v>
+        <v>-0.04404760374073239</v>
       </c>
       <c r="C78">
-        <v>-0.05170514675636431</v>
+        <v>0.06033478492046853</v>
       </c>
       <c r="D78">
-        <v>0.02523453493791662</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06616413608906219</v>
+      </c>
+      <c r="E78">
+        <v>0.04537556450259344</v>
+      </c>
+      <c r="F78">
+        <v>-0.08501740134097327</v>
+      </c>
+      <c r="G78">
+        <v>0.006292834917660741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02735745963527563</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04113649586043234</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06010628891694283</v>
+      </c>
+      <c r="E79">
+        <v>0.06357281181776661</v>
+      </c>
+      <c r="F79">
+        <v>-0.0351765782526069</v>
+      </c>
+      <c r="G79">
+        <v>0.07714422860939871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0442644088254878</v>
+        <v>-0.0341669816147105</v>
       </c>
       <c r="C80">
-        <v>-0.05632128307848795</v>
+        <v>0.05586174175128295</v>
       </c>
       <c r="D80">
-        <v>0.03066307959379554</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04505587508349437</v>
+      </c>
+      <c r="E80">
+        <v>0.01561307649282401</v>
+      </c>
+      <c r="F80">
+        <v>-0.03040847357955304</v>
+      </c>
+      <c r="G80">
+        <v>-0.04756196746136525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1396199170613431</v>
+        <v>-0.1405257238800726</v>
       </c>
       <c r="C81">
-        <v>-0.08127137763793708</v>
+        <v>0.09502704007086597</v>
       </c>
       <c r="D81">
-        <v>-0.06737381532897646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09951274858078828</v>
+      </c>
+      <c r="E81">
+        <v>0.08655186227086645</v>
+      </c>
+      <c r="F81">
+        <v>-0.009502218469310344</v>
+      </c>
+      <c r="G81">
+        <v>0.05171165553863769</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1606706589812225</v>
+        <v>-0.2034734593797366</v>
       </c>
       <c r="C82">
-        <v>-0.0763125774975536</v>
+        <v>0.1405759131035753</v>
       </c>
       <c r="D82">
-        <v>-0.1566625570188283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2321235623064988</v>
+      </c>
+      <c r="E82">
+        <v>0.007616248521071112</v>
+      </c>
+      <c r="F82">
+        <v>-0.1038173026195194</v>
+      </c>
+      <c r="G82">
+        <v>0.04877861603130303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04036403019993661</v>
+        <v>-0.0285151418669359</v>
       </c>
       <c r="C83">
-        <v>-0.0284769865633398</v>
+        <v>0.04313123932183958</v>
       </c>
       <c r="D83">
-        <v>0.03280171848217014</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0343793505195706</v>
+      </c>
+      <c r="E83">
+        <v>0.02015786885825658</v>
+      </c>
+      <c r="F83">
+        <v>-0.04025795006743797</v>
+      </c>
+      <c r="G83">
+        <v>-0.02166876973509368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.124012033977039e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001091557339762683</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0001875382312205036</v>
+      </c>
+      <c r="E84">
+        <v>9.292081729232487e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.000777872570345842</v>
+      </c>
+      <c r="G84">
+        <v>0.0003956521816659606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2171484088205458</v>
+        <v>-0.2030822251673895</v>
       </c>
       <c r="C85">
-        <v>-0.1065164989277975</v>
+        <v>0.1162592183164827</v>
       </c>
       <c r="D85">
-        <v>-0.1124019737182488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09685987913339898</v>
+      </c>
+      <c r="E85">
+        <v>0.0008364248884904349</v>
+      </c>
+      <c r="F85">
+        <v>0.005860445801875899</v>
+      </c>
+      <c r="G85">
+        <v>0.1274846703337848</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00898527273785622</v>
+        <v>-0.01036100663663143</v>
       </c>
       <c r="C86">
-        <v>-0.0406052318441238</v>
+        <v>0.03105333127208003</v>
       </c>
       <c r="D86">
-        <v>0.04064522639031904</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06503863308858759</v>
+      </c>
+      <c r="E86">
+        <v>0.06478845042501283</v>
+      </c>
+      <c r="F86">
+        <v>-0.1236566064683207</v>
+      </c>
+      <c r="G86">
+        <v>-0.017543760494313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02325009840672602</v>
+        <v>-0.02224702246551222</v>
       </c>
       <c r="C87">
-        <v>-0.01323747427764821</v>
+        <v>0.020479778367306</v>
       </c>
       <c r="D87">
-        <v>0.09462320864527568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09188994963366061</v>
+      </c>
+      <c r="E87">
+        <v>0.1110748382170155</v>
+      </c>
+      <c r="F87">
+        <v>-0.06486004554374246</v>
+      </c>
+      <c r="G87">
+        <v>-0.0429501510664179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1048657502755695</v>
+        <v>-0.09324039153262487</v>
       </c>
       <c r="C88">
-        <v>-0.07006498322492866</v>
+        <v>0.06298197291166845</v>
       </c>
       <c r="D88">
-        <v>-0.02581810296723706</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007207132692291842</v>
+      </c>
+      <c r="E88">
+        <v>0.04439107165046652</v>
+      </c>
+      <c r="F88">
+        <v>-0.07075006236838643</v>
+      </c>
+      <c r="G88">
+        <v>-0.02816335032933307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1903706527681927</v>
+        <v>-0.2192457419494899</v>
       </c>
       <c r="C89">
-        <v>0.3763823772827298</v>
+        <v>-0.3796497155402151</v>
       </c>
       <c r="D89">
-        <v>-0.01966754993786182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007910771820224679</v>
+      </c>
+      <c r="E89">
+        <v>0.06240912463306891</v>
+      </c>
+      <c r="F89">
+        <v>-0.07484726891171571</v>
+      </c>
+      <c r="G89">
+        <v>-0.06540719515244771</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1826956223179439</v>
+        <v>-0.1996829211757774</v>
       </c>
       <c r="C90">
-        <v>0.3355846499814147</v>
+        <v>-0.3142406788622787</v>
       </c>
       <c r="D90">
-        <v>-0.01665167776386401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01360939342441086</v>
+      </c>
+      <c r="E90">
+        <v>0.07228728735412351</v>
+      </c>
+      <c r="F90">
+        <v>-0.04230024734788482</v>
+      </c>
+      <c r="G90">
+        <v>-0.0135097073046991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1876010947518395</v>
+        <v>-0.1859039130572739</v>
       </c>
       <c r="C91">
-        <v>-0.1290996677665517</v>
+        <v>0.1403068435874394</v>
       </c>
       <c r="D91">
-        <v>-0.08303371816073822</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1062642897602851</v>
+      </c>
+      <c r="E91">
+        <v>0.06398943217444744</v>
+      </c>
+      <c r="F91">
+        <v>-0.03691471755466163</v>
+      </c>
+      <c r="G91">
+        <v>0.05738583648589281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1687875010900803</v>
+        <v>-0.1809737937208963</v>
       </c>
       <c r="C92">
-        <v>0.2827886609690775</v>
+        <v>-0.2860056100811892</v>
       </c>
       <c r="D92">
-        <v>2.147712694183856e-05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00648529020776942</v>
+      </c>
+      <c r="E92">
+        <v>0.07259333640603445</v>
+      </c>
+      <c r="F92">
+        <v>-0.08325792455875441</v>
+      </c>
+      <c r="G92">
+        <v>-0.0102633649433612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2056292787011052</v>
+        <v>-0.222909470560946</v>
       </c>
       <c r="C93">
-        <v>0.3348195245062335</v>
+        <v>-0.3190535863783767</v>
       </c>
       <c r="D93">
-        <v>-0.01207791069348064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00599773555555047</v>
+      </c>
+      <c r="E93">
+        <v>0.04804829069319038</v>
+      </c>
+      <c r="F93">
+        <v>-0.04104725610364163</v>
+      </c>
+      <c r="G93">
+        <v>0.02595476893127622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3401816216472247</v>
+        <v>-0.3447684760787396</v>
       </c>
       <c r="C94">
-        <v>-0.1510431718161499</v>
+        <v>0.1818443996431225</v>
       </c>
       <c r="D94">
-        <v>-0.4528792210094143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5046263696482971</v>
+      </c>
+      <c r="E94">
+        <v>0.04161782877856435</v>
+      </c>
+      <c r="F94">
+        <v>0.4558865659314604</v>
+      </c>
+      <c r="G94">
+        <v>-0.3230050220171481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.109641413871725</v>
+        <v>-0.08436358277067636</v>
       </c>
       <c r="C95">
-        <v>-0.07887631228740312</v>
+        <v>0.06668183180331762</v>
       </c>
       <c r="D95">
-        <v>0.1202704899824197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1664178844621055</v>
+      </c>
+      <c r="E95">
+        <v>-0.1088055197328876</v>
+      </c>
+      <c r="F95">
+        <v>-0.2158332780837627</v>
+      </c>
+      <c r="G95">
+        <v>-0.8681485821615296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1957713349625553</v>
+        <v>-0.1879013883787715</v>
       </c>
       <c r="C98">
-        <v>-0.020994725890075</v>
+        <v>0.03927985538816871</v>
       </c>
       <c r="D98">
-        <v>0.1288231450710181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1830745473140172</v>
+      </c>
+      <c r="E98">
+        <v>-0.1544285625925142</v>
+      </c>
+      <c r="F98">
+        <v>0.03274488957136913</v>
+      </c>
+      <c r="G98">
+        <v>0.09916095796043374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006187696703253476</v>
+        <v>-0.005917999477985411</v>
       </c>
       <c r="C101">
-        <v>-0.03015297529084413</v>
+        <v>0.0290273831587457</v>
       </c>
       <c r="D101">
-        <v>-0.0176691073954473</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01859516856988892</v>
+      </c>
+      <c r="E101">
+        <v>0.03842970146039621</v>
+      </c>
+      <c r="F101">
+        <v>-0.08528353057457626</v>
+      </c>
+      <c r="G101">
+        <v>0.006022381405085411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1210834942051678</v>
+        <v>-0.1248011521667728</v>
       </c>
       <c r="C102">
-        <v>-0.07435612210647374</v>
+        <v>0.09843326324763063</v>
       </c>
       <c r="D102">
-        <v>-0.02699035639659527</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04616166332060562</v>
+      </c>
+      <c r="E102">
+        <v>-0.001743817421548033</v>
+      </c>
+      <c r="F102">
+        <v>-0.04560186238718622</v>
+      </c>
+      <c r="G102">
+        <v>0.01729935515531892</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
